--- a/public/report/BookingReport.xlsx
+++ b/public/report/BookingReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -23,7 +23,7 @@
     <t>trip_id</t>
   </si>
   <si>
-    <t>customer_id</t>
+    <t>customer</t>
   </si>
   <si>
     <t>seat</t>
@@ -32,7 +32,16 @@
     <t>status</t>
   </si>
   <si>
+    <t>Leo Messi</t>
+  </si>
+  <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>Terry Henry</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
   </si>
   <si>
     <t>BOOKED</t>
@@ -406,14 +415,14 @@
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -423,14 +432,14 @@
       <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>16</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -440,14 +449,14 @@
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -457,14 +466,14 @@
       <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -474,14 +483,14 @@
       <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -491,14 +500,14 @@
       <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -508,14 +517,14 @@
       <c r="B8">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/report/BookingReport.xlsx
+++ b/public/report/BookingReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -32,19 +32,13 @@
     <t>status</t>
   </si>
   <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>BOOKED</t>
+  </si>
+  <si>
     <t>Leo Messi</t>
-  </si>
-  <si>
-    <t>PAID</t>
-  </si>
-  <si>
-    <t>Terry Henry</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>BOOKED</t>
   </si>
 </sst>
 </file>
@@ -383,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,16 +404,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -427,10 +421,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -444,86 +438,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/report/BookingReport.xlsx
+++ b/public/report/BookingReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Leo Messi</t>
+  </si>
+  <si>
+    <t>PAID</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +453,24 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/report/BookingReport.xlsx
+++ b/public/report/BookingReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>Ben Ten</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +474,91 @@
       </c>
       <c r="E5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
